--- a/KatalonData/ABPTestData/NormalizedSharedData.xlsx
+++ b/KatalonData/ABPTestData/NormalizedSharedData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T476640\Documents\VPS_Katalon\VPS-Katalon\KatalonData\ABPTestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476640\Documents\VPS-Katalon\KatalonData\ABPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E2649B-8FB3-4552-A774-F923A33735AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99EC052-7F75-4953-88FC-A76FE1AC2612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BCCB990F-B3AB-4CDA-A16C-818C7712AEED}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{BCCB990F-B3AB-4CDA-A16C-818C7712AEED}"/>
   </bookViews>
   <sheets>
     <sheet name="NameData" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,28 @@
     <sheet name="EmailAndPhoneData" sheetId="5" r:id="rId5"/>
     <sheet name="UDFData" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="87">
   <si>
     <t>ID</t>
   </si>
@@ -270,6 +281,27 @@
   </si>
   <si>
     <t>Smith</t>
+  </si>
+  <si>
+    <t>1234567</t>
+  </si>
+  <si>
+    <t>PCPM</t>
+  </si>
+  <si>
+    <t>PSPM</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>CorpPM</t>
   </si>
 </sst>
 </file>
@@ -677,7 +709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4758406-EDCC-4FC2-8D56-4EE6148C26F6}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -940,10 +972,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D64820D-36BC-47E5-8B0C-19AD74EF9BDF}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1051,6 +1083,57 @@
       </c>
       <c r="E5" s="1" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
